--- a/data.xlsx
+++ b/data.xlsx
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">Y + …</t>
+    <t xml:space="preserve">truc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autre</t>
   </si>
   <si>
     <t xml:space="preserve">H</t>
@@ -47,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
   </si>
 </sst>
 </file>
@@ -147,13 +159,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -162,72 +174,86 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="n">
         <v>1.95</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>1.45</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1" t="n">
         <v>1.78</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.28</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>2.5</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>2.02</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1.099</v>
+      <c r="E5" s="1" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
